--- a/lab/lab1/for_checking/simple_test相关度评估.xlsx
+++ b/lab/lab1/for_checking/simple_test相关度评估.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\TA\2021-1\lab1\验收\第2周\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\TA\2021-1\lab1\验收\第3周（完整版）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D73ABFE-7459-4E5D-98A0-2B3757CF31FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861CB40-85B2-40F8-9B3E-2A68A61D1AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>anger</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>palestinians say clashes hurt their cause</t>
+  </si>
+  <si>
+    <t>science panel calls global warming unequivocal</t>
+  </si>
+  <si>
+    <t>false alarm at canadian embassy in paris</t>
+  </si>
+  <si>
+    <t>human hair clue in hunt for airliner</t>
+  </si>
+  <si>
+    <t>thailand missing years after taking wrong bus</t>
+  </si>
+  <si>
+    <t>chrysler s valentine s day massacre</t>
+  </si>
+  <si>
+    <t>pediatricians say more cord blood is needed now</t>
+  </si>
+  <si>
+    <t>internet attacked did anyone notice</t>
+  </si>
+  <si>
+    <t>gronholm ahead as solberg crashes</t>
+  </si>
+  <si>
+    <t>nato afghanistan peace by</t>
+  </si>
+  <si>
+    <t>military officials add to u s criticism of iraq s government</t>
   </si>
 </sst>
 </file>
@@ -471,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G26" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -555,28 +585,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <f>CORREL(Predict!B2:B16,Standard!B2:B16)</f>
+        <f>CORREL(Predict!B2:B26,Standard!B2:B26)</f>
         <v>1</v>
       </c>
       <c r="K2">
-        <f>CORREL(Predict!C2:C16,Standard!C2:C16)</f>
-        <v>0.99999999999999989</v>
+        <f>CORREL(Predict!C2:C26,Standard!C2:C26)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="L2">
-        <f>CORREL(Predict!D2:D16,Standard!D2:D16)</f>
+        <f>CORREL(Predict!D2:D26,Standard!D2:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>CORREL(Predict!E2:E26,Standard!E2:E26)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="N2">
+        <f>CORREL(Predict!F2:F26,Standard!F2:F26)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>CORREL(Predict!G2:G26,Standard!G2:G26)</f>
         <v>1.0000000000000002</v>
-      </c>
-      <c r="M2">
-        <f>CORREL(Predict!E2:E16,Standard!E2:E16)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="N2">
-        <f>CORREL(Predict!F2:F16,Standard!F2:F16)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O2">
-        <f>CORREL(Predict!G2:G16,Standard!G2:G16)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -913,6 +943,236 @@
       </c>
       <c r="G16">
         <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.1343</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="G17">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F18">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.15379999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.25</v>
+      </c>
+      <c r="G22">
+        <v>0.27079999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.1371</v>
+      </c>
+      <c r="D23">
+        <v>0.2823</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.4355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.193</v>
+      </c>
+      <c r="G24">
+        <v>0.15790000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.5877</v>
+      </c>
+      <c r="F25">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.28889999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -924,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G26"/>
+      <selection activeCell="B2" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1303,87 +1563,237 @@
         <v>7.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.1343</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="G17">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F18">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.15379999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.25</v>
+      </c>
+      <c r="G22">
+        <v>0.27079999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.1371</v>
+      </c>
+      <c r="D23">
+        <v>0.2823</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.4355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.193</v>
+      </c>
+      <c r="G24">
+        <v>0.15790000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.5877</v>
+      </c>
+      <c r="F25">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.28889999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1391,7 +1801,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1399,7 +1809,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1407,7 +1817,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1415,7 +1825,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1423,7 +1833,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -3591,6 +4001,86 @@
       <c r="F302"/>
       <c r="G302"/>
     </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303"/>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B304"/>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305"/>
+      <c r="G305"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B306"/>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
+      <c r="G306"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B308"/>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B311"/>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311"/>
+      <c r="G311"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B312"/>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
+      <c r="G312"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
